--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H2">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J2">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N2">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q2">
-        <v>23.28683046788136</v>
+        <v>577.6839976531384</v>
       </c>
       <c r="R2">
-        <v>23.28683046788136</v>
+        <v>5199.155978878245</v>
       </c>
       <c r="S2">
-        <v>0.003160215990127999</v>
+        <v>0.03789027199494725</v>
       </c>
       <c r="T2">
-        <v>0.003160215990127999</v>
+        <v>0.03789027199494724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H3">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J3">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N3">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q3">
-        <v>107.2537229074686</v>
+        <v>1985.613690313142</v>
       </c>
       <c r="R3">
-        <v>107.2537229074686</v>
+        <v>17870.52321281828</v>
       </c>
       <c r="S3">
-        <v>0.01455521955211697</v>
+        <v>0.1302363283533948</v>
       </c>
       <c r="T3">
-        <v>0.01455521955211697</v>
+        <v>0.1302363283533948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H4">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I4">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J4">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N4">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q4">
-        <v>145.3083103191186</v>
+        <v>2883.74301279787</v>
       </c>
       <c r="R4">
-        <v>145.3083103191186</v>
+        <v>25953.68711518083</v>
       </c>
       <c r="S4">
-        <v>0.01971954261454022</v>
+        <v>0.1891445973271479</v>
       </c>
       <c r="T4">
-        <v>0.01971954261454022</v>
+        <v>0.1891445973271479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.00683539768261</v>
+        <v>55.59510733333332</v>
       </c>
       <c r="H5">
-        <v>3.00683539768261</v>
+        <v>166.785322</v>
       </c>
       <c r="I5">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="J5">
-        <v>0.04814227584579041</v>
+        <v>0.4537221086682116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N5">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q5">
-        <v>78.8993622055888</v>
+        <v>1470.513271770458</v>
       </c>
       <c r="R5">
-        <v>78.8993622055888</v>
+        <v>13234.61944593413</v>
       </c>
       <c r="S5">
-        <v>0.01070729768900522</v>
+        <v>0.09645091099272161</v>
       </c>
       <c r="T5">
-        <v>0.01070729768900522</v>
+        <v>0.09645091099272161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H6">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J6">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N6">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q6">
-        <v>10.72351713407139</v>
+        <v>17.193419919879</v>
       </c>
       <c r="R6">
-        <v>10.72351713407139</v>
+        <v>154.740779278911</v>
       </c>
       <c r="S6">
-        <v>0.001455270195067778</v>
+        <v>0.001127715775292638</v>
       </c>
       <c r="T6">
-        <v>0.001455270195067778</v>
+        <v>0.001127715775292638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H7">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J7">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N7">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q7">
-        <v>49.39002484161701</v>
+        <v>59.097170970474</v>
       </c>
       <c r="R7">
-        <v>49.39002484161701</v>
+        <v>531.874538734266</v>
       </c>
       <c r="S7">
-        <v>0.006702635915719692</v>
+        <v>0.003876181253591966</v>
       </c>
       <c r="T7">
-        <v>0.006702635915719692</v>
+        <v>0.003876181253591966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H8">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J8">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N8">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q8">
-        <v>66.91405073692701</v>
+        <v>85.82790030791398</v>
       </c>
       <c r="R8">
-        <v>66.91405073692701</v>
+        <v>772.4511027712259</v>
       </c>
       <c r="S8">
-        <v>0.00908079153986781</v>
+        <v>0.005629448800094194</v>
       </c>
       <c r="T8">
-        <v>0.00908079153986781</v>
+        <v>0.005629448800094194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.38463888208636</v>
+        <v>1.654659</v>
       </c>
       <c r="H9">
-        <v>1.38463888208636</v>
+        <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="J9">
-        <v>0.02216937683372475</v>
+        <v>0.01350398275347337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N9">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q9">
-        <v>36.33292489700994</v>
+        <v>43.766405650872</v>
       </c>
       <c r="R9">
-        <v>36.33292489700994</v>
+        <v>393.897650857848</v>
       </c>
       <c r="S9">
-        <v>0.00493067918306947</v>
+        <v>0.002870636924494574</v>
       </c>
       <c r="T9">
-        <v>0.00493067918306947</v>
+        <v>0.002870636924494574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H10">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I10">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J10">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N10">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q10">
-        <v>426.1790315003564</v>
+        <v>644.8522637499638</v>
       </c>
       <c r="R10">
-        <v>426.1790315003564</v>
+        <v>5803.670373749674</v>
       </c>
       <c r="S10">
-        <v>0.05783602847378931</v>
+        <v>0.04229583607873173</v>
       </c>
       <c r="T10">
-        <v>0.05783602847378931</v>
+        <v>0.04229583607873173</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H11">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I11">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J11">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N11">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q11">
-        <v>1962.88145853759</v>
+        <v>2216.484251482005</v>
       </c>
       <c r="R11">
-        <v>1962.88145853759</v>
+        <v>19948.35826333805</v>
       </c>
       <c r="S11">
-        <v>0.2663792902409798</v>
+        <v>0.1453791199035371</v>
       </c>
       <c r="T11">
-        <v>0.2663792902409798</v>
+        <v>0.1453791199035371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H12">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I12">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J12">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N12">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q12">
-        <v>2659.329488663958</v>
+        <v>3219.040543671782</v>
       </c>
       <c r="R12">
-        <v>2659.329488663958</v>
+        <v>28971.36489304604</v>
       </c>
       <c r="S12">
-        <v>0.360893062913227</v>
+        <v>0.2111367499497916</v>
       </c>
       <c r="T12">
-        <v>0.360893062913227</v>
+        <v>0.2111367499497916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.0289658110759</v>
+        <v>62.05924166666666</v>
       </c>
       <c r="H13">
-        <v>55.0289658110759</v>
+        <v>186.177725</v>
       </c>
       <c r="I13">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734745</v>
       </c>
       <c r="J13">
-        <v>0.8810657389583608</v>
+        <v>0.5064771225734744</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N13">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O13">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P13">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q13">
-        <v>1443.960087962666</v>
+        <v>1641.492262253933</v>
       </c>
       <c r="R13">
-        <v>1443.960087962666</v>
+        <v>14773.4303602854</v>
       </c>
       <c r="S13">
-        <v>0.1959573573303647</v>
+        <v>0.1076654166414141</v>
       </c>
       <c r="T13">
-        <v>0.1959573573303647</v>
+        <v>0.107665416641414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H14">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I14">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J14">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N14">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O14">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P14">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q14">
-        <v>23.51917141312255</v>
+        <v>33.48135824656078</v>
       </c>
       <c r="R14">
-        <v>23.51917141312255</v>
+        <v>301.332224219047</v>
       </c>
       <c r="S14">
-        <v>0.003191746582980702</v>
+        <v>0.002196041046447993</v>
       </c>
       <c r="T14">
-        <v>0.003191746582980702</v>
+        <v>0.002196041046447992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H15">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I15">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J15">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N15">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P15">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q15">
-        <v>108.3238312416761</v>
+        <v>115.0820233462091</v>
       </c>
       <c r="R15">
-        <v>108.3238312416761</v>
+        <v>1035.738210115882</v>
       </c>
       <c r="S15">
-        <v>0.01470044212646414</v>
+        <v>0.007548225645909136</v>
       </c>
       <c r="T15">
-        <v>0.01470044212646414</v>
+        <v>0.007548225645909136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H16">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I16">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J16">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N16">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O16">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P16">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q16">
-        <v>146.7581027336556</v>
+        <v>167.1357235006446</v>
       </c>
       <c r="R16">
-        <v>146.7581027336556</v>
+        <v>1504.221511505802</v>
       </c>
       <c r="S16">
-        <v>0.01991629146694869</v>
+        <v>0.01096242590973442</v>
       </c>
       <c r="T16">
-        <v>0.01991629146694869</v>
+        <v>0.01096242590973442</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.03683565810645</v>
+        <v>3.222176333333334</v>
       </c>
       <c r="H17">
-        <v>3.03683565810645</v>
+        <v>9.666529000000001</v>
       </c>
       <c r="I17">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="J17">
-        <v>0.04862260836212409</v>
+        <v>0.02629678600484052</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N17">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O17">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P17">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q17">
-        <v>79.6865690527833</v>
+        <v>85.22787866461067</v>
       </c>
       <c r="R17">
-        <v>79.6865690527833</v>
+        <v>767.050907981496</v>
       </c>
       <c r="S17">
-        <v>0.01081412818573055</v>
+        <v>0.005590093402748969</v>
       </c>
       <c r="T17">
-        <v>0.01081412818573055</v>
+        <v>0.005590093402748969</v>
       </c>
     </row>
   </sheetData>
